--- a/test_youtube/result/all_result.xlsx
+++ b/test_youtube/result/all_result.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sukri\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sukri\Desktop\AICARES\AICARE\test_youtube\result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98ADA853-4DB7-4550-99AA-EC1EDC0CF57D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3081D73C-3B83-4BCD-AA4A-080DE5F06533}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Anongrat" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,6 @@
     <sheet name="Kittiya" sheetId="4" r:id="rId4"/>
     <sheet name="Monsrung" sheetId="5" r:id="rId5"/>
     <sheet name="Krittika" sheetId="6" r:id="rId6"/>
-    <sheet name="Wachiraya" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6452" uniqueCount="1630">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6454" uniqueCount="1631">
   <si>
     <t>No</t>
   </si>
@@ -4921,6 +4920,9 @@
   </si>
   <si>
     <t>9.17-9.18</t>
+  </si>
+  <si>
+    <t>03_Friday</t>
   </si>
 </sst>
 </file>
@@ -5346,8 +5348,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F185"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P31" sqref="P31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9070,7 +9072,7 @@
   <dimension ref="A1:F289"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11398,7 +11400,9 @@
       <c r="E116" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F116" s="2"/>
+      <c r="F116" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
@@ -11416,7 +11420,9 @@
       <c r="E117" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F117" s="2"/>
+      <c r="F117" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
@@ -11434,7 +11440,9 @@
       <c r="E118" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F118" s="2"/>
+      <c r="F118" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
@@ -11452,7 +11460,9 @@
       <c r="E119" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F119" s="2"/>
+      <c r="F119" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
@@ -11470,7 +11480,9 @@
       <c r="E120" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F120" s="2"/>
+      <c r="F120" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
@@ -11488,7 +11500,9 @@
       <c r="E121" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F121" s="2"/>
+      <c r="F121" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
@@ -11506,7 +11520,9 @@
       <c r="E122" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F122" s="2"/>
+      <c r="F122" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
@@ -11524,7 +11540,9 @@
       <c r="E123" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F123" s="2"/>
+      <c r="F123" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
@@ -11542,7 +11560,9 @@
       <c r="E124" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F124" s="2"/>
+      <c r="F124" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
@@ -11560,7 +11580,9 @@
       <c r="E125" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F125" s="2"/>
+      <c r="F125" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
@@ -11578,7 +11600,9 @@
       <c r="E126" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F126" s="2"/>
+      <c r="F126" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
@@ -11596,7 +11620,9 @@
       <c r="E127" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F127" s="2"/>
+      <c r="F127" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
@@ -11614,7 +11640,9 @@
       <c r="E128" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F128" s="2"/>
+      <c r="F128" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
@@ -11632,7 +11660,9 @@
       <c r="E129" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F129" s="2"/>
+      <c r="F129" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
@@ -11650,7 +11680,9 @@
       <c r="E130" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F130" s="2"/>
+      <c r="F130" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="2">
@@ -11668,7 +11700,9 @@
       <c r="E131" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F131" s="2"/>
+      <c r="F131" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
@@ -11776,7 +11810,9 @@
       <c r="E137" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="F137" s="2"/>
+      <c r="F137" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="2">
@@ -11794,7 +11830,9 @@
       <c r="E138" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="F138" s="2"/>
+      <c r="F138" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="2">
@@ -11812,7 +11850,9 @@
       <c r="E139" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="F139" s="2"/>
+      <c r="F139" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="2">
@@ -11830,7 +11870,9 @@
       <c r="E140" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F140" s="2"/>
+      <c r="F140" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
@@ -11848,7 +11890,9 @@
       <c r="E141" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F141" s="2"/>
+      <c r="F141" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="2">
@@ -11866,7 +11910,9 @@
       <c r="E142" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F142" s="2"/>
+      <c r="F142" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="2">
@@ -11884,7 +11930,9 @@
       <c r="E143" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F143" s="2"/>
+      <c r="F143" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="2">
@@ -11902,7 +11950,9 @@
       <c r="E144" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F144" s="2"/>
+      <c r="F144" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="2">
@@ -11920,7 +11970,9 @@
       <c r="E145" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F145" s="2"/>
+      <c r="F145" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
@@ -11938,7 +11990,9 @@
       <c r="E146" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="F146" s="2"/>
+      <c r="F146" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="2">
@@ -11956,7 +12010,9 @@
       <c r="E147" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F147" s="2"/>
+      <c r="F147" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="2">
@@ -11974,7 +12030,9 @@
       <c r="E148" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F148" s="2"/>
+      <c r="F148" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="2">
@@ -11992,7 +12050,9 @@
       <c r="E149" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="F149" s="2"/>
+      <c r="F149" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" s="2">
@@ -12010,7 +12070,9 @@
       <c r="E150" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F150" s="2"/>
+      <c r="F150" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" s="2">
@@ -12028,7 +12090,9 @@
       <c r="E151" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F151" s="2"/>
+      <c r="F151" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" s="2">
@@ -12046,7 +12110,9 @@
       <c r="E152" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F152" s="2"/>
+      <c r="F152" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
@@ -12064,7 +12130,9 @@
       <c r="E153" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="F153" s="2"/>
+      <c r="F153" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" s="2">
@@ -12082,7 +12150,9 @@
       <c r="E154" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F154" s="2"/>
+      <c r="F154" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" s="2">
@@ -12100,7 +12170,9 @@
       <c r="E155" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F155" s="2"/>
+      <c r="F155" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" s="2">
@@ -12118,7 +12190,9 @@
       <c r="E156" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F156" s="2"/>
+      <c r="F156" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" s="2">
@@ -12136,7 +12210,9 @@
       <c r="E157" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F157" s="2"/>
+      <c r="F157" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" s="2">
@@ -12154,7 +12230,9 @@
       <c r="E158" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F158" s="2"/>
+      <c r="F158" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" s="2">
@@ -12172,7 +12250,9 @@
       <c r="E159" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="F159" s="2"/>
+      <c r="F159" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" s="2">
@@ -12190,7 +12270,9 @@
       <c r="E160" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F160" s="2"/>
+      <c r="F160" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" s="2">
@@ -12208,7 +12290,9 @@
       <c r="E161" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F161" s="2"/>
+      <c r="F161" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" s="2">
@@ -12226,7 +12310,9 @@
       <c r="E162" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F162" s="2"/>
+      <c r="F162" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" s="2">
@@ -12244,7 +12330,9 @@
       <c r="E163" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F163" s="2"/>
+      <c r="F163" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" s="2">
@@ -12262,7 +12350,9 @@
       <c r="E164" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="F164" s="2"/>
+      <c r="F164" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" s="2">
@@ -12280,7 +12370,9 @@
       <c r="E165" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F165" s="2"/>
+      <c r="F165" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" s="2">
@@ -12298,7 +12390,9 @@
       <c r="E166" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F166" s="2"/>
+      <c r="F166" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" s="2">
@@ -12316,7 +12410,9 @@
       <c r="E167" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F167" s="2"/>
+      <c r="F167" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" s="2">
@@ -12334,7 +12430,9 @@
       <c r="E168" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F168" s="2"/>
+      <c r="F168" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" s="2">
@@ -12352,7 +12450,9 @@
       <c r="E169" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F169" s="2"/>
+      <c r="F169" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" s="2">
@@ -12370,7 +12470,9 @@
       <c r="E170" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F170" s="2"/>
+      <c r="F170" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" s="2">
@@ -12388,7 +12490,9 @@
       <c r="E171" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F171" s="2"/>
+      <c r="F171" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" s="2">
@@ -12406,7 +12510,9 @@
       <c r="E172" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F172" s="2"/>
+      <c r="F172" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" s="2">
@@ -12424,7 +12530,9 @@
       <c r="E173" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F173" s="2"/>
+      <c r="F173" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" s="2">
@@ -12442,7 +12550,9 @@
       <c r="E174" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F174" s="2"/>
+      <c r="F174" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" s="2">
@@ -12460,7 +12570,9 @@
       <c r="E175" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F175" s="2"/>
+      <c r="F175" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" s="2">
@@ -12478,7 +12590,9 @@
       <c r="E176" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F176" s="2"/>
+      <c r="F176" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" s="2">
@@ -12496,7 +12610,9 @@
       <c r="E177" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F177" s="2"/>
+      <c r="F177" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" s="2">
@@ -12514,7 +12630,9 @@
       <c r="E178" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F178" s="2"/>
+      <c r="F178" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" s="2">
@@ -12532,7 +12650,9 @@
       <c r="E179" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F179" s="2"/>
+      <c r="F179" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" s="2">
@@ -12550,7 +12670,9 @@
       <c r="E180" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F180" s="2"/>
+      <c r="F180" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" s="2">
@@ -12568,7 +12690,9 @@
       <c r="E181" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F181" s="2"/>
+      <c r="F181" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" s="2">
@@ -12586,7 +12710,9 @@
       <c r="E182" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F182" s="2"/>
+      <c r="F182" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" s="2">
@@ -12604,7 +12730,9 @@
       <c r="E183" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F183" s="2"/>
+      <c r="F183" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" s="2">
@@ -12622,7 +12750,9 @@
       <c r="E184" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F184" s="2"/>
+      <c r="F184" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" s="2">
@@ -12640,7 +12770,9 @@
       <c r="E185" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F185" s="2"/>
+      <c r="F185" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" s="2">
@@ -12658,7 +12790,9 @@
       <c r="E186" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F186" s="2"/>
+      <c r="F186" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" s="2">
@@ -12676,7 +12810,9 @@
       <c r="E187" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F187" s="2"/>
+      <c r="F187" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" s="2">
@@ -12694,7 +12830,9 @@
       <c r="E188" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F188" s="2"/>
+      <c r="F188" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" s="2">
@@ -12712,7 +12850,9 @@
       <c r="E189" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F189" s="2"/>
+      <c r="F189" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" s="2">
@@ -12730,7 +12870,9 @@
       <c r="E190" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F190" s="2"/>
+      <c r="F190" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" s="2">
@@ -12748,7 +12890,9 @@
       <c r="E191" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F191" s="2"/>
+      <c r="F191" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" s="2">
@@ -12766,7 +12910,9 @@
       <c r="E192" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F192" s="2"/>
+      <c r="F192" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" s="2">
@@ -12784,7 +12930,9 @@
       <c r="E193" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F193" s="2"/>
+      <c r="F193" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" s="2">
@@ -12802,7 +12950,9 @@
       <c r="E194" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F194" s="2"/>
+      <c r="F194" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" s="2">
@@ -12820,7 +12970,9 @@
       <c r="E195" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F195" s="2"/>
+      <c r="F195" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" s="2">
@@ -12838,7 +12990,9 @@
       <c r="E196" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F196" s="2"/>
+      <c r="F196" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" s="2">
@@ -12856,7 +13010,9 @@
       <c r="E197" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F197" s="2"/>
+      <c r="F197" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" s="2">
@@ -12874,7 +13030,9 @@
       <c r="E198" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F198" s="2"/>
+      <c r="F198" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" s="2">
@@ -12892,7 +13050,9 @@
       <c r="E199" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F199" s="2"/>
+      <c r="F199" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" s="2">
@@ -12910,7 +13070,9 @@
       <c r="E200" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F200" s="2"/>
+      <c r="F200" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" s="2">
@@ -12928,7 +13090,9 @@
       <c r="E201" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F201" s="2"/>
+      <c r="F201" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" s="2">
@@ -12946,7 +13110,9 @@
       <c r="E202" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F202" s="2"/>
+      <c r="F202" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" s="2">
@@ -12964,7 +13130,9 @@
       <c r="E203" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F203" s="2"/>
+      <c r="F203" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" s="2">
@@ -12982,7 +13150,9 @@
       <c r="E204" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F204" s="2"/>
+      <c r="F204" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" s="2">
@@ -13000,7 +13170,9 @@
       <c r="E205" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F205" s="2"/>
+      <c r="F205" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" s="2">
@@ -14592,6 +14764,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -14600,7 +14773,7 @@
   <dimension ref="A1:F211"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18843,7 +19016,7 @@
   <dimension ref="A1:F284"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24417,7 +24590,7 @@
   <dimension ref="A1:F355"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N28" sqref="N28"/>
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26426,7 +26599,9 @@
       <c r="E100" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F100" s="2"/>
+      <c r="F100" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
@@ -26444,7 +26619,9 @@
       <c r="E101" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F101" s="2"/>
+      <c r="F101" s="2">
+        <v>4</v>
+      </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
@@ -26462,7 +26639,9 @@
       <c r="E102" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F102" s="2"/>
+      <c r="F102" s="2">
+        <v>4</v>
+      </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
@@ -26480,7 +26659,9 @@
       <c r="E103" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F103" s="2"/>
+      <c r="F103" s="2">
+        <v>4</v>
+      </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
@@ -26498,7 +26679,9 @@
       <c r="E104" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F104" s="2"/>
+      <c r="F104" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
@@ -26552,7 +26735,9 @@
       <c r="E107" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F107" s="2"/>
+      <c r="F107" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
@@ -26570,7 +26755,9 @@
       <c r="E108" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F108" s="2"/>
+      <c r="F108" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
@@ -26588,7 +26775,9 @@
       <c r="E109" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F109" s="2"/>
+      <c r="F109" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
@@ -27206,7 +27395,9 @@
       <c r="E140" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F140" s="2"/>
+      <c r="F140" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
@@ -27224,7 +27415,9 @@
       <c r="E141" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F141" s="2"/>
+      <c r="F141" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="2">
@@ -27242,7 +27435,9 @@
       <c r="E142" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F142" s="2"/>
+      <c r="F142" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="2">
@@ -27260,7 +27455,9 @@
       <c r="E143" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F143" s="2"/>
+      <c r="F143" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="2">
@@ -27278,7 +27475,9 @@
       <c r="E144" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F144" s="2"/>
+      <c r="F144" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="2">
@@ -27296,7 +27495,9 @@
       <c r="E145" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="F145" s="2"/>
+      <c r="F145" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
@@ -27314,7 +27515,9 @@
       <c r="E146" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F146" s="2"/>
+      <c r="F146" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="2">
@@ -27332,7 +27535,9 @@
       <c r="E147" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F147" s="2"/>
+      <c r="F147" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="2">
@@ -27350,7 +27555,9 @@
       <c r="E148" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F148" s="2"/>
+      <c r="F148" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="2">
@@ -27368,7 +27575,9 @@
       <c r="E149" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F149" s="2"/>
+      <c r="F149" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" s="2">
@@ -27386,7 +27595,9 @@
       <c r="E150" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F150" s="2"/>
+      <c r="F150" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" s="2">
@@ -27404,7 +27615,9 @@
       <c r="E151" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F151" s="2"/>
+      <c r="F151" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" s="2">
@@ -27422,7 +27635,9 @@
       <c r="E152" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F152" s="2"/>
+      <c r="F152" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
@@ -27440,7 +27655,9 @@
       <c r="E153" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F153" s="2"/>
+      <c r="F153" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" s="2">
@@ -27458,7 +27675,9 @@
       <c r="E154" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F154" s="2"/>
+      <c r="F154" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" s="2">
@@ -27476,7 +27695,9 @@
       <c r="E155" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F155" s="2"/>
+      <c r="F155" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" s="2">
@@ -27494,7 +27715,9 @@
       <c r="E156" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F156" s="2"/>
+      <c r="F156" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" s="2">
@@ -27512,7 +27735,9 @@
       <c r="E157" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F157" s="2"/>
+      <c r="F157" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" s="2">
@@ -27530,7 +27755,9 @@
       <c r="E158" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="F158" s="2"/>
+      <c r="F158" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" s="2">
@@ -27548,7 +27775,9 @@
       <c r="E159" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F159" s="2"/>
+      <c r="F159" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" s="2">
@@ -27566,7 +27795,9 @@
       <c r="E160" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F160" s="2"/>
+      <c r="F160" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" s="2">
@@ -27584,7 +27815,9 @@
       <c r="E161" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F161" s="2"/>
+      <c r="F161" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" s="2">
@@ -27602,7 +27835,9 @@
       <c r="E162" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="F162" s="2"/>
+      <c r="F162" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" s="2">
@@ -27620,7 +27855,9 @@
       <c r="E163" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F163" s="2"/>
+      <c r="F163" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" s="2">
@@ -27638,7 +27875,9 @@
       <c r="E164" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F164" s="2"/>
+      <c r="F164" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" s="2">
@@ -27656,7 +27895,9 @@
       <c r="E165" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="F165" s="2"/>
+      <c r="F165" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" s="2">
@@ -27674,7 +27915,9 @@
       <c r="E166" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="F166" s="2"/>
+      <c r="F166" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" s="2">
@@ -27692,7 +27935,9 @@
       <c r="E167" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F167" s="2"/>
+      <c r="F167" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" s="2">
@@ -27710,7 +27955,9 @@
       <c r="E168" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F168" s="2"/>
+      <c r="F168" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" s="2">
@@ -27728,7 +27975,9 @@
       <c r="E169" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F169" s="2"/>
+      <c r="F169" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" s="2">
@@ -27746,7 +27995,9 @@
       <c r="E170" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F170" s="2"/>
+      <c r="F170" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" s="2">
@@ -27764,7 +28015,9 @@
       <c r="E171" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F171" s="2"/>
+      <c r="F171" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" s="2">
@@ -27782,7 +28035,9 @@
       <c r="E172" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F172" s="2"/>
+      <c r="F172" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" s="2">
@@ -27800,7 +28055,9 @@
       <c r="E173" s="7" t="s">
         <v>1146</v>
       </c>
-      <c r="F173" s="2"/>
+      <c r="F173" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" s="2">
@@ -27818,7 +28075,9 @@
       <c r="E174" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F174" s="2"/>
+      <c r="F174" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" s="2">
@@ -27836,7 +28095,9 @@
       <c r="E175" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="F175" s="2"/>
+      <c r="F175" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" s="2">
@@ -27854,7 +28115,9 @@
       <c r="E176" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F176" s="2"/>
+      <c r="F176" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" s="2">
@@ -27872,7 +28135,9 @@
       <c r="E177" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F177" s="2"/>
+      <c r="F177" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" s="2">
@@ -27890,7 +28155,9 @@
       <c r="E178" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F178" s="2"/>
+      <c r="F178" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" s="2">
@@ -27908,7 +28175,9 @@
       <c r="E179" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F179" s="2"/>
+      <c r="F179" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" s="2">
@@ -27926,7 +28195,9 @@
       <c r="E180" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F180" s="2"/>
+      <c r="F180" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" s="2">
@@ -27944,7 +28215,9 @@
       <c r="E181" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F181" s="2"/>
+      <c r="F181" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" s="2">
@@ -27962,7 +28235,9 @@
       <c r="E182" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F182" s="2"/>
+      <c r="F182" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" s="2">
@@ -27980,7 +28255,9 @@
       <c r="E183" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F183" s="2"/>
+      <c r="F183" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" s="2">
@@ -27998,7 +28275,9 @@
       <c r="E184" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F184" s="2"/>
+      <c r="F184" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" s="2">
@@ -28016,7 +28295,9 @@
       <c r="E185" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F185" s="2"/>
+      <c r="F185" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" s="2">
@@ -28034,7 +28315,9 @@
       <c r="E186" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F186" s="2"/>
+      <c r="F186" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" s="2">
@@ -28052,7 +28335,9 @@
       <c r="E187" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F187" s="2"/>
+      <c r="F187" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" s="2">
@@ -28070,7 +28355,9 @@
       <c r="E188" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F188" s="2"/>
+      <c r="F188" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" s="2">
@@ -28088,7 +28375,9 @@
       <c r="E189" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F189" s="2"/>
+      <c r="F189" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" s="2">
@@ -28104,7 +28393,9 @@
       <c r="E190" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F190" s="2"/>
+      <c r="F190" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" s="2">
@@ -28122,7 +28413,9 @@
       <c r="E191" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F191" s="2"/>
+      <c r="F191" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" s="2">
@@ -28140,7 +28433,9 @@
       <c r="E192" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F192" s="2"/>
+      <c r="F192" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" s="2">
@@ -28158,7 +28453,9 @@
       <c r="E193" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F193" s="2"/>
+      <c r="F193" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" s="2">
@@ -28176,7 +28473,9 @@
       <c r="E194" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="F194" s="2"/>
+      <c r="F194" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" s="2">
@@ -28194,7 +28493,9 @@
       <c r="E195" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F195" s="2"/>
+      <c r="F195" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" s="2">
@@ -28212,7 +28513,9 @@
       <c r="E196" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F196" s="2"/>
+      <c r="F196" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" s="2">
@@ -28230,7 +28533,9 @@
       <c r="E197" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F197" s="2"/>
+      <c r="F197" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" s="2">
@@ -28248,7 +28553,9 @@
       <c r="E198" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F198" s="2"/>
+      <c r="F198" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" s="2">
@@ -28266,7 +28573,9 @@
       <c r="E199" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F199" s="2"/>
+      <c r="F199" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" s="2">
@@ -28284,7 +28593,9 @@
       <c r="E200" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F200" s="2"/>
+      <c r="F200" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" s="2">
@@ -28302,7 +28613,9 @@
       <c r="E201" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F201" s="2"/>
+      <c r="F201" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" s="2">
@@ -28320,7 +28633,9 @@
       <c r="E202" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F202" s="2"/>
+      <c r="F202" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" s="2">
@@ -28338,7 +28653,9 @@
       <c r="E203" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F203" s="2"/>
+      <c r="F203" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" s="2">
@@ -28356,7 +28673,9 @@
       <c r="E204" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F204" s="2"/>
+      <c r="F204" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" s="2">
@@ -28374,7 +28693,9 @@
       <c r="E205" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F205" s="2"/>
+      <c r="F205" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" s="2">
@@ -28392,7 +28713,9 @@
       <c r="E206" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F206" s="2"/>
+      <c r="F206" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" s="2">
@@ -28410,7 +28733,9 @@
       <c r="E207" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F207" s="2"/>
+      <c r="F207" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" s="2">
@@ -28426,7 +28751,9 @@
       <c r="E208" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F208" s="2"/>
+      <c r="F208" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" s="2">
@@ -28444,7 +28771,9 @@
       <c r="E209" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F209" s="2"/>
+      <c r="F209" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" s="2">
@@ -29302,7 +29631,9 @@
       <c r="E252" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F252" s="2"/>
+      <c r="F252" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253" s="2">
@@ -29320,7 +29651,9 @@
       <c r="E253" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F253" s="2"/>
+      <c r="F253" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254" s="2">
@@ -29338,7 +29671,9 @@
       <c r="E254" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F254" s="2"/>
+      <c r="F254" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A255" s="2">
@@ -29356,7 +29691,9 @@
       <c r="E255" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F255" s="2"/>
+      <c r="F255" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256" s="2">
@@ -29374,7 +29711,9 @@
       <c r="E256" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F256" s="2"/>
+      <c r="F256" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257" s="2">
@@ -29392,7 +29731,9 @@
       <c r="E257" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F257" s="2"/>
+      <c r="F257" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A258" s="2">
@@ -29410,7 +29751,9 @@
       <c r="E258" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F258" s="2"/>
+      <c r="F258" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A259" s="2">
@@ -29428,7 +29771,9 @@
       <c r="E259" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F259" s="2"/>
+      <c r="F259" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A260" s="2">
@@ -29446,7 +29791,9 @@
       <c r="E260" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F260" s="2"/>
+      <c r="F260" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A261" s="2">
@@ -29464,7 +29811,9 @@
       <c r="E261" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F261" s="2"/>
+      <c r="F261" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A262" s="2">
@@ -29482,7 +29831,9 @@
       <c r="E262" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="F262" s="2"/>
+      <c r="F262" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A263" s="2">
@@ -29500,7 +29851,9 @@
       <c r="E263" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="F263" s="2"/>
+      <c r="F263" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A264" s="2">
@@ -29518,7 +29871,9 @@
       <c r="E264" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="F264" s="2"/>
+      <c r="F264" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A265" s="2">
@@ -29536,7 +29891,9 @@
       <c r="E265" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="F265" s="2"/>
+      <c r="F265" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A266" s="2">
@@ -29554,7 +29911,9 @@
       <c r="E266" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F266" s="2"/>
+      <c r="F266" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A267" s="2">
@@ -29572,7 +29931,9 @@
       <c r="E267" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F267" s="2"/>
+      <c r="F267" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A268" s="2">
@@ -29590,7 +29951,9 @@
       <c r="E268" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F268" s="2"/>
+      <c r="F268" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A269" s="2">
@@ -29608,7 +29971,9 @@
       <c r="E269" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="F269" s="2"/>
+      <c r="F269" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A270" s="2">
@@ -29626,7 +29991,9 @@
       <c r="E270" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F270" s="2"/>
+      <c r="F270" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A271" s="2">
@@ -29644,7 +30011,9 @@
       <c r="E271" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F271" s="2"/>
+      <c r="F271" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A272" s="2">
@@ -29662,7 +30031,9 @@
       <c r="E272" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F272" s="2"/>
+      <c r="F272" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A273" s="2">
@@ -29680,7 +30051,9 @@
       <c r="E273" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F273" s="2"/>
+      <c r="F273" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A274" s="2">
@@ -29698,7 +30071,9 @@
       <c r="E274" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F274" s="2"/>
+      <c r="F274" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A275" s="2">
@@ -29716,7 +30091,9 @@
       <c r="E275" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F275" s="2"/>
+      <c r="F275" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A276" s="2">
@@ -29734,7 +30111,9 @@
       <c r="E276" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F276" s="2"/>
+      <c r="F276" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A277" s="2">
@@ -29752,7 +30131,9 @@
       <c r="E277" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F277" s="2"/>
+      <c r="F277" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A278" s="2">
@@ -29770,7 +30151,9 @@
       <c r="E278" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F278" s="2"/>
+      <c r="F278" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A279" s="2">
@@ -29788,7 +30171,9 @@
       <c r="E279" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F279" s="2"/>
+      <c r="F279" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A280" s="2">
@@ -29806,7 +30191,9 @@
       <c r="E280" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F280" s="2"/>
+      <c r="F280" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A281" s="2">
@@ -29824,7 +30211,9 @@
       <c r="E281" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F281" s="2"/>
+      <c r="F281" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A282" s="2">
@@ -29842,7 +30231,9 @@
       <c r="E282" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F282" s="2"/>
+      <c r="F282" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A283" s="2">
@@ -29860,7 +30251,9 @@
       <c r="E283" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F283" s="2"/>
+      <c r="F283" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A284" s="2">
@@ -29878,7 +30271,9 @@
       <c r="E284" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F284" s="2"/>
+      <c r="F284" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A285" s="2">
@@ -29896,7 +30291,9 @@
       <c r="E285" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F285" s="2"/>
+      <c r="F285" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A286" s="2">
@@ -29914,7 +30311,9 @@
       <c r="E286" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F286" s="2"/>
+      <c r="F286" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A287" s="2">
@@ -29932,7 +30331,9 @@
       <c r="E287" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F287" s="2"/>
+      <c r="F287" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A288" s="2">
@@ -29950,7 +30351,9 @@
       <c r="E288" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F288" s="2"/>
+      <c r="F288" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A289" s="2">
@@ -29968,7 +30371,9 @@
       <c r="E289" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F289" s="2"/>
+      <c r="F289" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A290" s="2">
@@ -29986,7 +30391,9 @@
       <c r="E290" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F290" s="2"/>
+      <c r="F290" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A291" s="2">
@@ -30004,7 +30411,9 @@
       <c r="E291" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="F291" s="2"/>
+      <c r="F291" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A292" s="2">
@@ -30022,7 +30431,9 @@
       <c r="E292" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="F292" s="2"/>
+      <c r="F292" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A293" s="2">
@@ -30040,7 +30451,9 @@
       <c r="E293" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F293" s="2"/>
+      <c r="F293" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A294" s="2">
@@ -30058,7 +30471,9 @@
       <c r="E294" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F294" s="2"/>
+      <c r="F294" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A295" s="2">
@@ -30076,7 +30491,9 @@
       <c r="E295" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F295" s="2"/>
+      <c r="F295" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A296" s="2">
@@ -30094,7 +30511,9 @@
       <c r="E296" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="F296" s="2"/>
+      <c r="F296" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A297" s="2">
@@ -30112,7 +30531,9 @@
       <c r="E297" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F297" s="2"/>
+      <c r="F297" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A298" s="2">
@@ -30130,7 +30551,9 @@
       <c r="E298" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F298" s="2"/>
+      <c r="F298" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A299" s="2">
@@ -30148,7 +30571,9 @@
       <c r="E299" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F299" s="2"/>
+      <c r="F299" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A300" s="2">
@@ -30166,7 +30591,9 @@
       <c r="E300" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F300" s="2"/>
+      <c r="F300" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A301" s="2">
@@ -30184,7 +30611,9 @@
       <c r="E301" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F301" s="2"/>
+      <c r="F301" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A302" s="2">
@@ -30202,7 +30631,9 @@
       <c r="E302" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="F302" s="2"/>
+      <c r="F302" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A303" s="2">
@@ -30220,7 +30651,9 @@
       <c r="E303" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F303" s="2"/>
+      <c r="F303" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A304" s="2">
@@ -30238,7 +30671,9 @@
       <c r="E304" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F304" s="2"/>
+      <c r="F304" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A305" s="2">
@@ -30256,7 +30691,9 @@
       <c r="E305" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F305" s="2"/>
+      <c r="F305" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A306" s="2">
@@ -30274,7 +30711,9 @@
       <c r="E306" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F306" s="2"/>
+      <c r="F306" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A307" s="2">
@@ -30290,7 +30729,9 @@
       <c r="E307" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F307" s="2"/>
+      <c r="F307" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A308" s="2">
@@ -30308,7 +30749,9 @@
       <c r="E308" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F308" s="2"/>
+      <c r="F308" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A309" s="2">
@@ -30324,7 +30767,9 @@
       <c r="E309" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F309" s="2"/>
+      <c r="F309" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A310" s="2">
@@ -30422,7 +30867,9 @@
       <c r="E314" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F314" s="2"/>
+      <c r="F314" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A315" s="2">
@@ -30440,7 +30887,9 @@
       <c r="E315" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F315" s="2"/>
+      <c r="F315" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A316" s="2">
@@ -30458,7 +30907,9 @@
       <c r="E316" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F316" s="2"/>
+      <c r="F316" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A317" s="2">
@@ -30476,7 +30927,9 @@
       <c r="E317" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F317" s="2"/>
+      <c r="F317" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A318" s="2">
@@ -30494,7 +30947,9 @@
       <c r="E318" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F318" s="2"/>
+      <c r="F318" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A319" s="2">
@@ -30512,7 +30967,9 @@
       <c r="E319" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F319" s="2"/>
+      <c r="F319" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A320" s="2">
@@ -30530,7 +30987,9 @@
       <c r="E320" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F320" s="2"/>
+      <c r="F320" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A321" s="2">
@@ -30548,7 +31007,9 @@
       <c r="E321" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F321" s="2"/>
+      <c r="F321" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A322" s="2">
@@ -30566,7 +31027,9 @@
       <c r="E322" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F322" s="2"/>
+      <c r="F322" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A323" s="2">
@@ -30584,7 +31047,9 @@
       <c r="E323" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F323" s="2"/>
+      <c r="F323" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A324" s="2">
@@ -30602,7 +31067,9 @@
       <c r="E324" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F324" s="2"/>
+      <c r="F324" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A325" s="2">
@@ -30620,7 +31087,9 @@
       <c r="E325" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F325" s="2"/>
+      <c r="F325" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A326" s="2">
@@ -30638,7 +31107,9 @@
       <c r="E326" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F326" s="2"/>
+      <c r="F326" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A327" s="2">
@@ -30656,7 +31127,9 @@
       <c r="E327" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F327" s="2"/>
+      <c r="F327" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A328" s="2">
@@ -30674,7 +31147,9 @@
       <c r="E328" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F328" s="2"/>
+      <c r="F328" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A329" s="2">
@@ -30692,7 +31167,9 @@
       <c r="E329" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F329" s="2"/>
+      <c r="F329" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A330" s="2">
@@ -30710,7 +31187,9 @@
       <c r="E330" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F330" s="2"/>
+      <c r="F330" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A331" s="2">
@@ -30728,7 +31207,9 @@
       <c r="E331" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F331" s="2"/>
+      <c r="F331" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A332" s="2">
@@ -30746,7 +31227,9 @@
       <c r="E332" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F332" s="2"/>
+      <c r="F332" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A333" s="2">
@@ -30764,7 +31247,9 @@
       <c r="E333" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F333" s="2"/>
+      <c r="F333" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A334" s="2">
@@ -30782,7 +31267,9 @@
       <c r="E334" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F334" s="2"/>
+      <c r="F334" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A335" s="2">
@@ -30800,7 +31287,9 @@
       <c r="E335" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F335" s="2"/>
+      <c r="F335" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A336" s="2">
@@ -30818,7 +31307,9 @@
       <c r="E336" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F336" s="2"/>
+      <c r="F336" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A337" s="2">
@@ -30836,7 +31327,9 @@
       <c r="E337" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F337" s="2"/>
+      <c r="F337" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A338" s="2">
@@ -30854,7 +31347,9 @@
       <c r="E338" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F338" s="2"/>
+      <c r="F338" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A339" s="2">
@@ -30872,7 +31367,9 @@
       <c r="E339" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F339" s="2"/>
+      <c r="F339" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="340" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A340" s="2">
@@ -30890,7 +31387,9 @@
       <c r="E340" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F340" s="2"/>
+      <c r="F340" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A341" s="2">
@@ -30908,7 +31407,9 @@
       <c r="E341" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F341" s="2"/>
+      <c r="F341" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="342" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A342" s="2">
@@ -30926,7 +31427,9 @@
       <c r="E342" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="F342" s="2"/>
+      <c r="F342" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A343" s="2">
@@ -30944,7 +31447,9 @@
       <c r="E343" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F343" s="2"/>
+      <c r="F343" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="344" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A344" s="2">
@@ -30962,7 +31467,9 @@
       <c r="E344" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F344" s="2"/>
+      <c r="F344" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A345" s="2">
@@ -30980,7 +31487,9 @@
       <c r="E345" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F345" s="2"/>
+      <c r="F345" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A346" s="2">
@@ -30998,7 +31507,9 @@
       <c r="E346" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F346" s="2"/>
+      <c r="F346" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A347" s="2">
@@ -31016,7 +31527,9 @@
       <c r="E347" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F347" s="2"/>
+      <c r="F347" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="348" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A348" s="2">
@@ -31034,7 +31547,9 @@
       <c r="E348" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F348" s="2"/>
+      <c r="F348" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="349" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A349" s="2">
@@ -31052,7 +31567,9 @@
       <c r="E349" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F349" s="2"/>
+      <c r="F349" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A350" s="2">
@@ -31070,7 +31587,9 @@
       <c r="E350" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F350" s="2"/>
+      <c r="F350" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="351" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A351" s="2">
@@ -31088,7 +31607,9 @@
       <c r="E351" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F351" s="2"/>
+      <c r="F351" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="352" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A352" s="2">
@@ -31106,7 +31627,9 @@
       <c r="E352" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="F352" s="2"/>
+      <c r="F352" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A353" s="2">
@@ -31124,7 +31647,9 @@
       <c r="E353" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F353" s="2"/>
+      <c r="F353" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="354" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A354" s="2">
@@ -31142,7 +31667,9 @@
       <c r="E354" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F354" s="2"/>
+      <c r="F354" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A355" s="2">
@@ -31160,7 +31687,9 @@
       <c r="E355" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F355" s="2"/>
+      <c r="F355" s="2">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -31171,8 +31700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7836061C-103E-46ED-8015-B448CED2F0E3}">
   <dimension ref="A1:F322"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31700,7 +32229,9 @@
       <c r="E26" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F26" s="2"/>
+      <c r="F26" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
@@ -31718,7 +32249,9 @@
       <c r="E27" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="F27" s="2"/>
+      <c r="F27" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
@@ -31736,7 +32269,9 @@
       <c r="E28" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="F28" s="2"/>
+      <c r="F28" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
@@ -31754,7 +32289,9 @@
       <c r="E29" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="F29" s="2"/>
+      <c r="F29" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
@@ -31772,7 +32309,9 @@
       <c r="E30" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F30" s="2"/>
+      <c r="F30" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
@@ -31790,7 +32329,9 @@
       <c r="E31" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="F31" s="2"/>
+      <c r="F31" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
@@ -31808,7 +32349,9 @@
       <c r="E32" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F32" s="2"/>
+      <c r="F32" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
@@ -31826,7 +32369,9 @@
       <c r="E33" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="F33" s="2"/>
+      <c r="F33" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
@@ -31844,7 +32389,9 @@
       <c r="E34" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F34" s="2"/>
+      <c r="F34" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
@@ -31862,7 +32409,9 @@
       <c r="E35" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="F35" s="2"/>
+      <c r="F35" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
@@ -31880,7 +32429,9 @@
       <c r="E36" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F36" s="2"/>
+      <c r="F36" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
@@ -31898,7 +32449,9 @@
       <c r="E37" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F37" s="2"/>
+      <c r="F37" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
@@ -31916,7 +32469,9 @@
       <c r="E38" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F38" s="2"/>
+      <c r="F38" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
@@ -31934,7 +32489,9 @@
       <c r="E39" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="F39" s="2"/>
+      <c r="F39" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
@@ -31952,7 +32509,9 @@
       <c r="E40" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F40" s="2"/>
+      <c r="F40" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
@@ -31970,7 +32529,9 @@
       <c r="E41" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="F41" s="2"/>
+      <c r="F41" s="2">
+        <v>4</v>
+      </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
@@ -31988,7 +32549,9 @@
       <c r="E42" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F42" s="2"/>
+      <c r="F42" s="2">
+        <v>4</v>
+      </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
@@ -32006,7 +32569,9 @@
       <c r="E43" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="F43" s="2"/>
+      <c r="F43" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
@@ -32024,7 +32589,9 @@
       <c r="E44" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F44" s="2"/>
+      <c r="F44" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
@@ -32042,7 +32609,9 @@
       <c r="E45" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="F45" s="2"/>
+      <c r="F45" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
@@ -32060,7 +32629,9 @@
       <c r="E46" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F46" s="2"/>
+      <c r="F46" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
@@ -32078,7 +32649,9 @@
       <c r="E47" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="F47" s="2"/>
+      <c r="F47" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
@@ -32096,7 +32669,9 @@
       <c r="E48" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="F48" s="2"/>
+      <c r="F48" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
@@ -32114,7 +32689,9 @@
       <c r="E49" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F49" s="2"/>
+      <c r="F49" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
@@ -32132,7 +32709,9 @@
       <c r="E50" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="F50" s="2"/>
+      <c r="F50" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
@@ -32150,7 +32729,9 @@
       <c r="E51" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F51" s="2"/>
+      <c r="F51" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
@@ -32768,7 +33349,9 @@
       <c r="E82" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="F82" s="2"/>
+      <c r="F82" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
@@ -32786,7 +33369,9 @@
       <c r="E83" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="F83" s="2"/>
+      <c r="F83" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
@@ -32804,7 +33389,9 @@
       <c r="E84" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F84" s="2"/>
+      <c r="F84" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
@@ -32822,7 +33409,9 @@
       <c r="E85" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="F85" s="2"/>
+      <c r="F85" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
@@ -32840,7 +33429,9 @@
       <c r="E86" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F86" s="2"/>
+      <c r="F86" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
@@ -32858,7 +33449,9 @@
       <c r="E87" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F87" s="2"/>
+      <c r="F87" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
@@ -32876,7 +33469,9 @@
       <c r="E88" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="F88" s="2"/>
+      <c r="F88" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
@@ -32894,7 +33489,9 @@
       <c r="E89" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F89" s="2"/>
+      <c r="F89" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
@@ -32912,7 +33509,9 @@
       <c r="E90" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="F90" s="2"/>
+      <c r="F90" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
@@ -32930,7 +33529,9 @@
       <c r="E91" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="F91" s="2"/>
+      <c r="F91" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
@@ -32948,7 +33549,9 @@
       <c r="E92" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="F92" s="2"/>
+      <c r="F92" s="2">
+        <v>4</v>
+      </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
@@ -32966,7 +33569,9 @@
       <c r="E93" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="F93" s="2"/>
+      <c r="F93" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
@@ -32984,7 +33589,9 @@
       <c r="E94" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F94" s="2"/>
+      <c r="F94" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
@@ -33002,7 +33609,9 @@
       <c r="E95" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="F95" s="2"/>
+      <c r="F95" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
@@ -33020,7 +33629,9 @@
       <c r="E96" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="F96" s="2"/>
+      <c r="F96" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
@@ -33038,7 +33649,9 @@
       <c r="E97" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F97" s="2"/>
+      <c r="F97" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
@@ -33056,7 +33669,9 @@
       <c r="E98" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F98" s="2"/>
+      <c r="F98" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
@@ -33074,7 +33689,9 @@
       <c r="E99" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="F99" s="2"/>
+      <c r="F99" s="2" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
@@ -33092,7 +33709,9 @@
       <c r="E100" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="F100" s="2"/>
+      <c r="F100" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
@@ -33110,7 +33729,9 @@
       <c r="E101" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F101" s="2"/>
+      <c r="F101" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
@@ -33128,7 +33749,9 @@
       <c r="E102" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="F102" s="2"/>
+      <c r="F102" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
@@ -33146,7 +33769,9 @@
       <c r="E103" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F103" s="2"/>
+      <c r="F103" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
@@ -33164,7 +33789,9 @@
       <c r="E104" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F104" s="2"/>
+      <c r="F104" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
@@ -33182,7 +33809,9 @@
       <c r="E105" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F105" s="2"/>
+      <c r="F105" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
@@ -33200,7 +33829,9 @@
       <c r="E106" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="F106" s="2"/>
+      <c r="F106" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
@@ -33218,7 +33849,9 @@
       <c r="E107" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F107" s="2"/>
+      <c r="F107" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
@@ -33236,7 +33869,9 @@
       <c r="E108" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F108" s="2"/>
+      <c r="F108" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
@@ -33254,7 +33889,9 @@
       <c r="E109" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="F109" s="2"/>
+      <c r="F109" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
@@ -33272,7 +33909,9 @@
       <c r="E110" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="F110" s="2"/>
+      <c r="F110" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
@@ -33290,7 +33929,9 @@
       <c r="E111" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="F111" s="2"/>
+      <c r="F111" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
@@ -33308,7 +33949,9 @@
       <c r="E112" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F112" s="2"/>
+      <c r="F112" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
@@ -33326,7 +33969,9 @@
       <c r="E113" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="F113" s="2"/>
+      <c r="F113" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
@@ -33344,7 +33989,9 @@
       <c r="E114" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F114" s="2"/>
+      <c r="F114" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
@@ -33362,7 +34009,9 @@
       <c r="E115" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F115" s="2"/>
+      <c r="F115" s="2">
+        <v>4</v>
+      </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
@@ -33380,7 +34029,9 @@
       <c r="E116" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F116" s="2"/>
+      <c r="F116" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
@@ -33398,7 +34049,9 @@
       <c r="E117" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F117" s="2"/>
+      <c r="F117" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
@@ -33416,7 +34069,9 @@
       <c r="E118" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F118" s="2"/>
+      <c r="F118" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
@@ -33434,7 +34089,9 @@
       <c r="E119" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F119" s="2"/>
+      <c r="F119" s="2">
+        <v>4</v>
+      </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
@@ -33452,7 +34109,9 @@
       <c r="E120" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="F120" s="2"/>
+      <c r="F120" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
@@ -33470,7 +34129,9 @@
       <c r="E121" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F121" s="2"/>
+      <c r="F121" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
@@ -33488,7 +34149,9 @@
       <c r="E122" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F122" s="2"/>
+      <c r="F122" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
@@ -33506,7 +34169,9 @@
       <c r="E123" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="F123" s="2"/>
+      <c r="F123" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
@@ -33524,7 +34189,9 @@
       <c r="E124" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="F124" s="2"/>
+      <c r="F124" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
@@ -33542,7 +34209,9 @@
       <c r="E125" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="F125" s="2"/>
+      <c r="F125" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
@@ -33560,7 +34229,9 @@
       <c r="E126" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F126" s="2"/>
+      <c r="F126" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
@@ -33578,7 +34249,9 @@
       <c r="E127" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F127" s="2"/>
+      <c r="F127" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
@@ -33596,7 +34269,9 @@
       <c r="E128" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="F128" s="2"/>
+      <c r="F128" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
@@ -33614,7 +34289,9 @@
       <c r="E129" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F129" s="2"/>
+      <c r="F129" s="2">
+        <v>4</v>
+      </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
@@ -33632,7 +34309,9 @@
       <c r="E130" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="F130" s="2"/>
+      <c r="F130" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="2">
@@ -33650,7 +34329,9 @@
       <c r="E131" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F131" s="2"/>
+      <c r="F131" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
@@ -33668,7 +34349,9 @@
       <c r="E132" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F132" s="2"/>
+      <c r="F132" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="2">
@@ -33686,7 +34369,9 @@
       <c r="E133" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F133" s="2"/>
+      <c r="F133" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
@@ -33704,7 +34389,9 @@
       <c r="E134" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F134" s="2"/>
+      <c r="F134" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="2">
@@ -33722,7 +34409,9 @@
       <c r="E135" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="F135" s="2"/>
+      <c r="F135" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="2">
@@ -33740,7 +34429,9 @@
       <c r="E136" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F136" s="2"/>
+      <c r="F136" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="2">
@@ -33758,7 +34449,9 @@
       <c r="E137" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="F137" s="2"/>
+      <c r="F137" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="2">
@@ -33776,7 +34469,9 @@
       <c r="E138" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="F138" s="2"/>
+      <c r="F138" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="2">
@@ -33794,7 +34489,9 @@
       <c r="E139" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F139" s="2"/>
+      <c r="F139" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="2">
@@ -33812,7 +34509,9 @@
       <c r="E140" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F140" s="2"/>
+      <c r="F140" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
@@ -33830,7 +34529,9 @@
       <c r="E141" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="F141" s="2"/>
+      <c r="F141" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="2">
@@ -33848,7 +34549,9 @@
       <c r="E142" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="F142" s="2"/>
+      <c r="F142" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="2">
@@ -33866,7 +34569,9 @@
       <c r="E143" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="F143" s="2"/>
+      <c r="F143" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="2">
@@ -33884,7 +34589,9 @@
       <c r="E144" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F144" s="2"/>
+      <c r="F144" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="2">
@@ -33902,7 +34609,9 @@
       <c r="E145" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="F145" s="2"/>
+      <c r="F145" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
@@ -33920,7 +34629,9 @@
       <c r="E146" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="F146" s="2"/>
+      <c r="F146" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="2">
@@ -33938,7 +34649,9 @@
       <c r="E147" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F147" s="2"/>
+      <c r="F147" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="2">
@@ -33956,7 +34669,9 @@
       <c r="E148" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="F148" s="2"/>
+      <c r="F148" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="2">
@@ -33974,7 +34689,9 @@
       <c r="E149" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F149" s="2"/>
+      <c r="F149" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" s="2">
@@ -33992,7 +34709,9 @@
       <c r="E150" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F150" s="2"/>
+      <c r="F150" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" s="2">
@@ -34010,7 +34729,9 @@
       <c r="E151" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="F151" s="2"/>
+      <c r="F151" s="2">
+        <v>4</v>
+      </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" s="2">
@@ -35204,7 +35925,9 @@
       <c r="E211" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F211" s="2"/>
+      <c r="F211" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" s="2">
@@ -35222,7 +35945,9 @@
       <c r="E212" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F212" s="2"/>
+      <c r="F212" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" s="2">
@@ -35240,7 +35965,9 @@
       <c r="E213" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F213" s="2"/>
+      <c r="F213" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" s="2">
@@ -35258,7 +35985,9 @@
       <c r="E214" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F214" s="2"/>
+      <c r="F214" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" s="2">
@@ -35276,7 +36005,9 @@
       <c r="E215" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="F215" s="2"/>
+      <c r="F215" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" s="2">
@@ -35294,7 +36025,9 @@
       <c r="E216" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F216" s="2"/>
+      <c r="F216" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217" s="2">
@@ -35312,7 +36045,9 @@
       <c r="E217" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F217" s="2"/>
+      <c r="F217" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" s="2">
@@ -35330,7 +36065,9 @@
       <c r="E218" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F218" s="2"/>
+      <c r="F218" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" s="2">
@@ -35346,7 +36083,9 @@
         <v>10</v>
       </c>
       <c r="E219" s="10"/>
-      <c r="F219" s="2"/>
+      <c r="F219" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220" s="2">
@@ -35364,7 +36103,9 @@
       <c r="E220" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F220" s="2"/>
+      <c r="F220" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" s="2">
@@ -35380,7 +36121,9 @@
         <v>10</v>
       </c>
       <c r="E221" s="10"/>
-      <c r="F221" s="2"/>
+      <c r="F221" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222" s="2">
@@ -35398,7 +36141,9 @@
       <c r="E222" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F222" s="2"/>
+      <c r="F222" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" s="2">
@@ -35416,7 +36161,9 @@
       <c r="E223" s="10" t="s">
         <v>1529</v>
       </c>
-      <c r="F223" s="2"/>
+      <c r="F223" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" s="2">
@@ -35432,7 +36179,9 @@
         <v>35</v>
       </c>
       <c r="E224" s="10"/>
-      <c r="F224" s="2"/>
+      <c r="F224" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225" s="2">
@@ -35448,7 +36197,9 @@
         <v>10</v>
       </c>
       <c r="E225" s="10"/>
-      <c r="F225" s="2"/>
+      <c r="F225" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226" s="2">
@@ -35464,7 +36215,9 @@
         <v>12</v>
       </c>
       <c r="E226" s="10"/>
-      <c r="F226" s="2"/>
+      <c r="F226" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227" s="2">
@@ -35482,7 +36235,9 @@
       <c r="E227" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F227" s="2"/>
+      <c r="F227" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228" s="2">
@@ -35498,7 +36253,9 @@
         <v>12</v>
       </c>
       <c r="E228" s="10"/>
-      <c r="F228" s="2"/>
+      <c r="F228" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229" s="2">
@@ -35516,7 +36273,9 @@
       <c r="E229" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F229" s="2"/>
+      <c r="F229" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230" s="2">
@@ -35534,7 +36293,9 @@
       <c r="E230" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="F230" s="2"/>
+      <c r="F230" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231" s="2">
@@ -35552,7 +36313,9 @@
       <c r="E231" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="F231" s="2"/>
+      <c r="F231" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" s="2">
@@ -35568,7 +36331,9 @@
         <v>10</v>
       </c>
       <c r="E232" s="10"/>
-      <c r="F232" s="2"/>
+      <c r="F232" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233" s="2">
@@ -35586,7 +36351,9 @@
       <c r="E233" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F233" s="2"/>
+      <c r="F233" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234" s="2">
@@ -35674,7 +36441,9 @@
         <v>10</v>
       </c>
       <c r="E238" s="10"/>
-      <c r="F238" s="2"/>
+      <c r="F238" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239" s="2">
@@ -35692,7 +36461,9 @@
       <c r="E239" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F239" s="2"/>
+      <c r="F239" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240" s="2">
@@ -35710,7 +36481,9 @@
       <c r="E240" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F240" s="2"/>
+      <c r="F240" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241" s="2">
@@ -35728,7 +36501,9 @@
       <c r="E241" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F241" s="2"/>
+      <c r="F241" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242" s="2">
@@ -36238,7 +37013,9 @@
       <c r="E268" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="F268" s="2"/>
+      <c r="F268" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A269" s="2">
@@ -36254,7 +37031,9 @@
         <v>10</v>
       </c>
       <c r="E269" s="10"/>
-      <c r="F269" s="2"/>
+      <c r="F269" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A270" s="2">
@@ -36270,7 +37049,9 @@
         <v>27</v>
       </c>
       <c r="E270" s="10"/>
-      <c r="F270" s="2"/>
+      <c r="F270" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A271" s="2">
@@ -36288,7 +37069,9 @@
       <c r="E271" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F271" s="2"/>
+      <c r="F271" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A272" s="2">
@@ -36306,7 +37089,9 @@
       <c r="E272" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="F272" s="2"/>
+      <c r="F272" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A273" s="2">
@@ -36322,7 +37107,9 @@
         <v>27</v>
       </c>
       <c r="E273" s="10"/>
-      <c r="F273" s="2"/>
+      <c r="F273" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A274" s="2">
@@ -36340,7 +37127,9 @@
       <c r="E274" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="F274" s="2"/>
+      <c r="F274" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A275" s="2">
@@ -36356,7 +37145,9 @@
         <v>27</v>
       </c>
       <c r="E275" s="10"/>
-      <c r="F275" s="2"/>
+      <c r="F275" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A276" s="2">
@@ -36372,7 +37163,9 @@
         <v>10</v>
       </c>
       <c r="E276" s="10"/>
-      <c r="F276" s="2"/>
+      <c r="F276" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A277" s="2">
@@ -36390,7 +37183,9 @@
       <c r="E277" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F277" s="2"/>
+      <c r="F277" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A278" s="2">
@@ -36406,7 +37201,9 @@
         <v>10</v>
       </c>
       <c r="E278" s="10"/>
-      <c r="F278" s="2"/>
+      <c r="F278" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A279" s="2">
@@ -36424,7 +37221,9 @@
       <c r="E279" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="F279" s="2"/>
+      <c r="F279" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A280" s="2">
@@ -36440,7 +37239,9 @@
         <v>10</v>
       </c>
       <c r="E280" s="10"/>
-      <c r="F280" s="2"/>
+      <c r="F280" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A281" s="2">
@@ -36458,7 +37259,9 @@
       <c r="E281" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F281" s="2"/>
+      <c r="F281" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A282" s="2">
@@ -36474,7 +37277,9 @@
         <v>10</v>
       </c>
       <c r="E282" s="10"/>
-      <c r="F282" s="2"/>
+      <c r="F282" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A283" s="2">
@@ -36492,7 +37297,9 @@
       <c r="E283" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F283" s="2"/>
+      <c r="F283" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A284" s="2">
@@ -36510,7 +37317,9 @@
       <c r="E284" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F284" s="2"/>
+      <c r="F284" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A285" s="2">
@@ -36526,7 +37335,9 @@
         <v>10</v>
       </c>
       <c r="E285" s="10"/>
-      <c r="F285" s="2"/>
+      <c r="F285" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A286" s="2">
@@ -36542,7 +37353,9 @@
         <v>35</v>
       </c>
       <c r="E286" s="10"/>
-      <c r="F286" s="2"/>
+      <c r="F286" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A287" s="2">
@@ -36560,7 +37373,9 @@
       <c r="E287" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F287" s="2"/>
+      <c r="F287" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A288" s="2">
@@ -36576,7 +37391,9 @@
         <v>35</v>
       </c>
       <c r="E288" s="10"/>
-      <c r="F288" s="2"/>
+      <c r="F288" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A289" s="2">
@@ -36594,7 +37411,9 @@
       <c r="E289" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F289" s="2"/>
+      <c r="F289" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A290" s="2">
@@ -36612,7 +37431,9 @@
       <c r="E290" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="F290" s="2"/>
+      <c r="F290" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A291" s="2">
@@ -36630,7 +37451,9 @@
       <c r="E291" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F291" s="2"/>
+      <c r="F291" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A292" s="2">
@@ -36646,7 +37469,9 @@
         <v>35</v>
       </c>
       <c r="E292" s="10"/>
-      <c r="F292" s="2"/>
+      <c r="F292" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A293" s="2">
@@ -36664,7 +37489,9 @@
       <c r="E293" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F293" s="2"/>
+      <c r="F293" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A294" s="2">
@@ -36680,7 +37507,9 @@
         <v>35</v>
       </c>
       <c r="E294" s="10"/>
-      <c r="F294" s="2"/>
+      <c r="F294" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A295" s="2">
@@ -36698,7 +37527,9 @@
       <c r="E295" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F295" s="2"/>
+      <c r="F295" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A296" s="2">
@@ -36714,7 +37545,9 @@
         <v>35</v>
       </c>
       <c r="E296" s="10"/>
-      <c r="F296" s="2"/>
+      <c r="F296" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A297" s="2">
@@ -36732,7 +37565,9 @@
       <c r="E297" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="F297" s="2"/>
+      <c r="F297" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A298" s="2">
@@ -36750,7 +37585,9 @@
       <c r="E298" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="F298" s="2"/>
+      <c r="F298" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A299" s="2">
@@ -36768,7 +37605,9 @@
       <c r="E299" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F299" s="2"/>
+      <c r="F299" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A300" s="2">
@@ -36786,7 +37625,9 @@
       <c r="E300" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F300" s="2"/>
+      <c r="F300" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A301" s="2">
@@ -36804,7 +37645,9 @@
       <c r="E301" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F301" s="2"/>
+      <c r="F301" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A302" s="2">
@@ -36822,7 +37665,9 @@
       <c r="E302" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F302" s="2"/>
+      <c r="F302" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A303" s="2">
@@ -36840,7 +37685,9 @@
       <c r="E303" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="F303" s="2"/>
+      <c r="F303" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A304" s="2">
@@ -36858,7 +37705,9 @@
       <c r="E304" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="F304" s="2"/>
+      <c r="F304" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A305" s="2">
@@ -36876,7 +37725,9 @@
       <c r="E305" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="F305" s="2"/>
+      <c r="F305" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A306" s="2">
@@ -36892,7 +37743,9 @@
         <v>35</v>
       </c>
       <c r="E306" s="10"/>
-      <c r="F306" s="2"/>
+      <c r="F306" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A307" s="2">
@@ -36910,7 +37763,9 @@
       <c r="E307" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="F307" s="2"/>
+      <c r="F307" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A308" s="2">
@@ -36926,7 +37781,9 @@
         <v>35</v>
       </c>
       <c r="E308" s="10"/>
-      <c r="F308" s="2"/>
+      <c r="F308" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A309" s="2">
@@ -36944,7 +37801,9 @@
       <c r="E309" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F309" s="2"/>
+      <c r="F309" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A310" s="2">
@@ -36960,7 +37819,9 @@
         <v>10</v>
       </c>
       <c r="E310" s="10"/>
-      <c r="F310" s="2"/>
+      <c r="F310" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A311" s="2">
@@ -36978,7 +37839,9 @@
       <c r="E311" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="F311" s="2"/>
+      <c r="F311" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A312" s="2">
@@ -36996,7 +37859,9 @@
       <c r="E312" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="F312" s="2"/>
+      <c r="F312" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A313" s="2">
@@ -37014,7 +37879,9 @@
       <c r="E313" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F313" s="2"/>
+      <c r="F313" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A314" s="2">
@@ -37032,7 +37899,9 @@
       <c r="E314" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="F314" s="2"/>
+      <c r="F314" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A315" s="2">
@@ -37050,7 +37919,9 @@
       <c r="E315" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="F315" s="2"/>
+      <c r="F315" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A316" s="2">
@@ -37068,7 +37939,9 @@
       <c r="E316" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="F316" s="2"/>
+      <c r="F316" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A317" s="2">
@@ -37084,7 +37957,9 @@
         <v>27</v>
       </c>
       <c r="E317" s="10"/>
-      <c r="F317" s="2"/>
+      <c r="F317" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A318" s="2">
@@ -37167,8 +38042,12 @@
       </c>
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A322" s="2"/>
-      <c r="B322" s="4"/>
+      <c r="A322" s="2">
+        <v>4</v>
+      </c>
+      <c r="B322" s="4" t="s">
+        <v>1630</v>
+      </c>
       <c r="C322" s="7" t="s">
         <v>1629</v>
       </c>
@@ -37178,23 +38057,11 @@
       <c r="E322" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="F322" s="2"/>
+      <c r="F322" s="2">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD6DEB8F-429D-4E3D-961E-C0BD862EB94A}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N35" sqref="N35"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/test_youtube/result/all_result.xlsx
+++ b/test_youtube/result/all_result.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sukri\Desktop\AICARES\AICARE\test_youtube\result\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sukri\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3081D73C-3B83-4BCD-AA4A-080DE5F06533}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3B40F14-1F62-47C2-B8CA-BC1B286F3890}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Anongrat" sheetId="1" r:id="rId1"/>
@@ -5348,8 +5348,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F185"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9072,7 +9072,7 @@
   <dimension ref="A1:F289"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14772,8 +14772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CDA1701-8BD3-4848-9947-CC62FF52E346}">
   <dimension ref="A1:F211"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView topLeftCell="A178" workbookViewId="0">
+      <selection activeCell="J197" sqref="J197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19016,7 +19016,7 @@
   <dimension ref="A1:F284"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24590,7 +24590,7 @@
   <dimension ref="A1:F355"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31700,8 +31700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7836061C-103E-46ED-8015-B448CED2F0E3}">
   <dimension ref="A1:F322"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36274,7 +36274,7 @@
         <v>12</v>
       </c>
       <c r="F229" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.25">
@@ -36294,7 +36294,7 @@
         <v>35</v>
       </c>
       <c r="F230" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.25">
@@ -36314,7 +36314,7 @@
         <v>35</v>
       </c>
       <c r="F231" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
@@ -36371,7 +36371,9 @@
       <c r="E234" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="F234" s="2"/>
+      <c r="F234" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235" s="2">
@@ -36389,7 +36391,9 @@
       <c r="E235" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F235" s="2"/>
+      <c r="F235" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236" s="2">
@@ -36407,7 +36411,9 @@
       <c r="E236" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F236" s="2"/>
+      <c r="F236" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237" s="2">
@@ -36425,7 +36431,9 @@
       <c r="E237" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F237" s="2"/>
+      <c r="F237" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238" s="2">
@@ -36521,7 +36529,9 @@
       <c r="E242" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F242" s="2"/>
+      <c r="F242" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243" s="2">
@@ -36537,7 +36547,9 @@
         <v>10</v>
       </c>
       <c r="E243" s="10"/>
-      <c r="F243" s="2"/>
+      <c r="F243" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244" s="2">
@@ -36555,7 +36567,9 @@
       <c r="E244" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="F244" s="2"/>
+      <c r="F244" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245" s="2">
@@ -36571,7 +36585,9 @@
         <v>10</v>
       </c>
       <c r="E245" s="10"/>
-      <c r="F245" s="2"/>
+      <c r="F245" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246" s="2">
@@ -36589,7 +36605,9 @@
       <c r="E246" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F246" s="2"/>
+      <c r="F246" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247" s="2">
@@ -36605,7 +36623,9 @@
         <v>10</v>
       </c>
       <c r="E247" s="10"/>
-      <c r="F247" s="2"/>
+      <c r="F247" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A248" s="2">
@@ -38063,5 +38083,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/test_youtube/result/all_result.xlsx
+++ b/test_youtube/result/all_result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sukri\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3B40F14-1F62-47C2-B8CA-BC1B286F3890}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF393168-EE07-41DC-AE83-56F910EA6808}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Anongrat" sheetId="1" r:id="rId1"/>
@@ -5348,8 +5348,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F185"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R4" sqref="R4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q19" sqref="Q19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19015,7 +19015,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{986B884D-F257-41C7-86F5-DCB9CBE99C19}">
   <dimension ref="A1:F284"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A51" workbookViewId="0">
       <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
@@ -24589,8 +24589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC1FCE19-9A40-4DDB-A645-60F6D7E94A22}">
   <dimension ref="A1:F355"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="M96" sqref="M96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26699,7 +26699,9 @@
       <c r="E105" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F105" s="2"/>
+      <c r="F105" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
@@ -26717,7 +26719,9 @@
       <c r="E106" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F106" s="2"/>
+      <c r="F106" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
@@ -31693,6 +31697,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -31701,7 +31706,7 @@
   <dimension ref="A1:F322"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/test_youtube/result/all_result.xlsx
+++ b/test_youtube/result/all_result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sukri\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF393168-EE07-41DC-AE83-56F910EA6808}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A18261E6-35FE-403E-A689-AF1D154E1CC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Anongrat" sheetId="1" r:id="rId1"/>
@@ -5348,8 +5348,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F185"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q19" sqref="Q19"/>
+    <sheetView topLeftCell="A148" workbookViewId="0">
+      <selection activeCell="K166" sqref="K166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9071,8 +9071,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0783843D-29BA-4317-A068-11B7CEC75925}">
   <dimension ref="A1:F289"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView topLeftCell="A257" workbookViewId="0">
+      <selection activeCell="N277" sqref="N277"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11720,7 +11720,9 @@
       <c r="E132" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F132" s="2"/>
+      <c r="F132" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="2">
@@ -11738,7 +11740,9 @@
       <c r="E133" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F133" s="2"/>
+      <c r="F133" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
@@ -11756,7 +11760,9 @@
       <c r="E134" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F134" s="2"/>
+      <c r="F134" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="2">
@@ -11774,7 +11780,9 @@
       <c r="E135" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F135" s="2"/>
+      <c r="F135" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="2">
@@ -11792,7 +11800,9 @@
       <c r="E136" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F136" s="2"/>
+      <c r="F136" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="2">
@@ -14772,8 +14782,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CDA1701-8BD3-4848-9947-CC62FF52E346}">
   <dimension ref="A1:F211"/>
   <sheetViews>
-    <sheetView topLeftCell="A178" workbookViewId="0">
-      <selection activeCell="J197" sqref="J197"/>
+    <sheetView topLeftCell="A174" workbookViewId="0">
+      <selection activeCell="L182" sqref="L182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19015,8 +19025,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{986B884D-F257-41C7-86F5-DCB9CBE99C19}">
   <dimension ref="A1:F284"/>
   <sheetViews>
-    <sheetView topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView topLeftCell="A250" workbookViewId="0">
+      <selection activeCell="M266" sqref="M266"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24589,8 +24599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC1FCE19-9A40-4DDB-A645-60F6D7E94A22}">
   <dimension ref="A1:F355"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="M96" sqref="M96"/>
+    <sheetView topLeftCell="A318" workbookViewId="0">
+      <selection activeCell="N327" sqref="N327"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31705,8 +31715,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7836061C-103E-46ED-8015-B448CED2F0E3}">
   <dimension ref="A1:F322"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/test_youtube/result/all_result.xlsx
+++ b/test_youtube/result/all_result.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sukri\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sukri\Desktop\AICARES\AICARE\test_youtube\result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A18261E6-35FE-403E-A689-AF1D154E1CC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DEDD2F5-796E-48BB-B021-C87EDD132BB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5349,7 +5349,7 @@
   <dimension ref="A1:F185"/>
   <sheetViews>
     <sheetView topLeftCell="A148" workbookViewId="0">
-      <selection activeCell="K166" sqref="K166"/>
+      <selection activeCell="L175" sqref="L175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31716,7 +31716,7 @@
   <dimension ref="A1:F322"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
